--- a/test_data/QueryWSC83StatusAPIs.xlsx
+++ b/test_data/QueryWSC83StatusAPIs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Desktop\CSApp_AutoTest_janis\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Desktop\CSAPP_5api\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C986FF4-7A19-449A-8D98-D98D5955B0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85AD6DB-259B-44D8-AA09-E292C3C58334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D90D4049-E18D-4223-B876-5288D8845B9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>params</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"cs_app":{"desc_data":[{"cs_seq":1232803,"service_desc":" ","cs_desc_type":"TEXT_1","service_item":"WSC83"},{"cs_seq":1232804,"service_desc":" ","cs_desc_type":"TEXT_2","service_item":"WSC83"},{"cs_seq":1232805,"service_desc":" ","cs_desc_type":"TEXT_3","service_item":"WSC83"},{"cs_seq":1232806,"service_desc":" ","cs_desc_type":"TEXT_4","service_item":"WSC83"},{"cs_seq":1232807,"service_desc":"收費說明 :1.每日總使用量低於5MB(含)，收費49元。2.每日總使用量超過5MB以上，以每KB 0.0244元計費，當日收費上限最高399元。收費提醒 :1.日期計算基準以24小時為單位，自服務申請生效開始，連續24小時為第1日，第25-48小時為第2日，以此類推。2.當日系統未收到任何使用之傳輸量記錄，則不收取任何費用。3.本服務最長可申請連續使用天數為30天。","cs_desc_type":"TEXT_5","service_item":"WSC83"},{"cs_seq":1232808,"service_desc":"貼心提醒:1.已申請國內微量上網方案且在服務效期內，將無法使用漫遊上網功能及申辦漫遊上網服務(日租型/計量型)，如有漫遊上網需求者，請洽188客服。2.本服務於開通成功、結束前、結束後，將貼心發送簡訊通知用戶。3.服務實際生效時間請以簡訊內容為主。4.提醒簡訊接收狀況需視漫遊國之漫遊網訊號情況而定。5. 服務生效時，同時開啟國際漫遊上網功能，服務結束後，主動關閉國際漫遊上網功能 。","cs_desc_type":"TEXT_6","service_item":"WSC83"},{"cs_seq":1232809,"service_desc":"提醒您！ 1.服務實際生效時間，請以簡訊內容為主。 2.漫遊行動上網日租型服務生效後，請記得關機再重新開機。","cs_desc_type":"TEXT_7","service_item":"WSC83"},{"cs_seq":1232810,"service_desc":"提醒您：1.服務正式啟用時間請以簡訊內容為主，起迄時間的計算，皆以台灣時間為主。2.漫遊行動上網日租型服務生效後，請記得關機再重新開機。3.服務生效時，同時開啟國際漫遊上網功能，服務結束後，主動關閉國際漫遊上網功能，已申請不主動關閉漫遊上網服務的用戶，日租型/計量型服務結束後系統不會主動關閉漫遊上網。","cs_desc_type":"TEXT_8","service_item":"WSC83"},{"cs_seq":1232802,"service_desc":"漫遊上網日租型","cs_desc_type":"TEXT_0","service_item":"WSC83"}],"ANLMN_status":"Y","ret_code":"0","status":"N"}}</t>
-  </si>
-  <si>
     <t>Expected Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫遊行動上網日租型服務 – 狀態查詢 API</t>
+  </si>
+  <si>
+    <t>ANLMN_status(國際漫遊服務申請狀態)
+ N：未申請
+ Y：已申請</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"cs_app":{"desc_data":[{"cs_seq":1232803,"service_desc":" ","cs_desc_type":"TEXT_1","service_item":"WSC83"},{"cs_seq":1232804,"service_desc":" ","cs_desc_type":"TEXT_2","service_item":"WSC83"},{"cs_seq":1232805,"service_desc":" ","cs_desc_type":"TEXT_3","service_item":"WSC83"},{"cs_seq":1232806,"service_desc":" ","cs_desc_type":"TEXT_4","service_item":"WSC83"},{"cs_seq":1232807,"service_desc":"收費說明 :1.每日總使用量低於5MB(含)，收費49元。2.每日總使用量超過5MB以上，以每KB 0.0244元計費，當日收費上限最高399元。收費提醒 :1.日期計算基準以24小時為單位，自服務申請生效開始，連續24小時為第1日，第25-48小時為第2日，以此類推。2.當日系統未收到任何使用之傳輸量記錄，則不收取任何費用。3.本服務最長可申請連續使用天數為30天。","cs_desc_type":"TEXT_5","service_item":"WSC83"},{"cs_seq":1232808,"service_desc":"貼心提醒:1.已申請國內微量上網方案且在服務效期內，將無法使用漫遊上網功能及申辦漫遊上網服務(日租型/計量型)，如有漫遊上網需求者，請洽188客服。2.本服務於開通成功、結束前、結束後，將貼心發送簡訊通知用戶。3.服務實際生效時間請以簡訊內容為主。4.提醒簡訊接收狀況需視漫遊國之漫遊網訊號情況而定。5. 服務生效時，同時開啟國際漫遊上網功能，服務結束後，主動關閉國際漫遊上網功能 。","cs_desc_type":"TEXT_6","service_item":"WSC83"},{"cs_seq":1232809,"service_desc":"提醒您！ 1.服務實際生效時間，請以簡訊內容為主。 2.漫遊行動上網日租型服務生效後，請記得關機再重新開機。","cs_desc_type":"TEXT_7","service_item":"WSC83"},{"cs_seq":1232810,"service_desc":"提醒您：1.服務正式啟用時間請以簡訊內容為主，起迄時間的計算，皆以台灣時間為主。2.漫遊行動上網日租型服務生效後，請記得關機再重新開機。3.服務生效時，同時開啟國際漫遊上網功能，服務結束後，主動關閉國際漫遊上網功能，已申請不主動關閉漫遊上網服務的用戶，日租型/計量型服務結束後系統不會主動關閉漫遊上網。","cs_desc_type":"TEXT_8","service_item":"WSC83"},{"cs_seq":1232802,"service_desc":"漫遊上網日租型","cs_desc_type":"TEXT_0","service_item":"WSC83"}],</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"ANLMN_status":"N"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,"ret_code":"0","status":"N"}}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"cs_app":{"desc_data":[{"cs_seq":1232803,"service_desc":" ","cs_desc_type":"TEXT_1","service_item":"WSC83"},{"cs_seq":1232804,"service_desc":" ","cs_desc_type":"TEXT_2","service_item":"WSC83"},{"cs_seq":1232805,"service_desc":" ","cs_desc_type":"TEXT_3","service_item":"WSC83"},{"cs_seq":1232806,"service_desc":" ","cs_desc_type":"TEXT_4","service_item":"WSC83"},{"cs_seq":1232807,"service_desc":"收費說明 :1.每日總使用量低於5MB(含)，收費49元。2.每日總使用量超過5MB以上，以每KB 0.0244元計費，當日收費上限最高399元。收費提醒 :1.日期計算基準以24小時為單位，自服務申請生效開始，連續24小時為第1日，第25-48小時為第2日，以此類推。2.當日系統未收到任何使用之傳輸量記錄，則不收取任何費用。3.本服務最長可申請連續使用天數為30天。","cs_desc_type":"TEXT_5","service_item":"WSC83"},{"cs_seq":1232808,"service_desc":"貼心提醒:1.已申請國內微量上網方案且在服務效期內，將無法使用漫遊上網功能及申辦漫遊上網服務(日租型/計量型)，如有漫遊上網需求者，請洽188客服。2.本服務於開通成功、結束前、結束後，將貼心發送簡訊通知用戶。3.服務實際生效時間請以簡訊內容為主。4.提醒簡訊接收狀況需視漫遊國之漫遊網訊號情況而定。5. 服務生效時，同時開啟國際漫遊上網功能，服務結束後，主動關閉國際漫遊上網功能 。","cs_desc_type":"TEXT_6","service_item":"WSC83"},{"cs_seq":1232809,"service_desc":"提醒您！ 1.服務實際生效時間，請以簡訊內容為主。 2.漫遊行動上網日租型服務生效後，請記得關機再重新開機。","cs_desc_type":"TEXT_7","service_item":"WSC83"},{"cs_seq":1232810,"service_desc":"提醒您：1.服務正式啟用時間請以簡訊內容為主，起迄時間的計算，皆以台灣時間為主。2.漫遊行動上網日租型服務生效後，請記得關機再重新開機。3.服務生效時，同時開啟國際漫遊上網功能，服務結束後，主動關閉國際漫遊上網功能，已申請不主動關閉漫遊上網服務的用戶，日租型/計量型服務結束後系統不會主動關閉漫遊上網。","cs_desc_type":"TEXT_8","service_item":"WSC83"},{"cs_seq":1232802,"service_desc":"漫遊上網日租型","cs_desc_type":"TEXT_0","service_item":"WSC83"}],</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"ANLMN_status":"Y"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,"ret_code":"0","status":"N"}}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,6 +156,29 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -119,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -131,6 +218,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCBABB-C1AD-483E-9ACA-C3BBA4EF43CA}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -477,10 +570,12 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="41" style="3" customWidth="1"/>
     <col min="3" max="3" width="255.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="49.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="44.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -488,10 +583,14 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:3" ht="210.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="214.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -499,10 +598,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="180" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="217.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -510,21 +615,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="202.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
